--- a/data/spring-cloud-shop/shop-oss_structure.xlsx
+++ b/data/spring-cloud-shop/shop-oss_structure.xlsx
@@ -423,19 +423,22 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>ALIYUN</t>
+  </si>
+  <si>
     <t>QINIU</t>
   </si>
   <si>
-    <t>ALIYUN</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
+    <t>bucket</t>
   </si>
   <si>
     <t>log</t>
@@ -450,9 +453,6 @@
     <t>com.aliyun.oss.OSS</t>
   </si>
   <si>
-    <t>bucket</t>
-  </si>
-  <si>
     <t>qiNiuProperties</t>
   </si>
   <si>
@@ -468,31 +468,31 @@
     <t>$assertionsDisabled</t>
   </si>
   <si>
+    <t>filePath</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
-    <t>filePath</t>
-  </si>
-  <si>
     <t>applicationContext</t>
   </si>
   <si>
+    <t>endpoint</t>
+  </si>
+  <si>
+    <t>accessKey</t>
+  </si>
+  <si>
     <t>secretKey</t>
   </si>
   <si>
-    <t>endpoint</t>
-  </si>
-  <si>
-    <t>accessKey</t>
+    <t>qiniuProperties</t>
+  </si>
+  <si>
+    <t>auth</t>
   </si>
   <si>
     <t>uploadManager</t>
-  </si>
-  <si>
-    <t>qiniuProperties</t>
-  </si>
-  <si>
-    <t>auth</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -5175,10 +5175,10 @@
         <v>133</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -5189,10 +5189,10 @@
         <v>134</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -5217,10 +5217,10 @@
         <v>136</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -5231,10 +5231,10 @@
         <v>137</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -5248,7 +5248,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>139</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -5256,13 +5256,13 @@
         <v>40</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
@@ -5270,13 +5270,13 @@
         <v>40</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>15</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
@@ -5326,13 +5326,13 @@
         <v>60</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>146</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -5340,13 +5340,13 @@
         <v>60</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>65</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>8</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -5354,13 +5354,13 @@
         <v>60</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -5438,7 +5438,7 @@
         <v>99</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>18</v>
@@ -5452,7 +5452,7 @@
         <v>99</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>18</v>
@@ -5466,7 +5466,7 @@
         <v>99</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>18</v>
@@ -5480,13 +5480,13 @@
         <v>125</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25">
@@ -5500,7 +5500,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>50</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
@@ -5508,13 +5508,13 @@
         <v>113</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27">
@@ -5528,7 +5528,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>99</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
@@ -5542,7 +5542,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -5550,13 +5550,13 @@
         <v>115</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -6587,7 +6587,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>162</v>
@@ -6604,7 +6604,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>162</v>
@@ -6651,7 +6651,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>162</v>
